--- a/biology/Zoologie/Grigore_Antipa/Grigore_Antipa.xlsx
+++ b/biology/Zoologie/Grigore_Antipa/Grigore_Antipa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grigore Antipa est un naturaliste et océanographe roumain, né le 27 novembre 1867 à Botoșani et mort à Bucarest le 9 mars 1944. Spécialisé en écologie, en zoologie et en biologie marine, il était membre de l'Académie roumaine. Le muséum national d'histoire naturelle de Bucarest porte son nom.
 </t>
@@ -511,11 +523,13 @@
           <t>Débuts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études universitaires à Iéna, en Allemagne, auprès de l'un des créateurs de l'écologie : Ernst Haeckel (1834-1919). 
 Il commence ses recherches en France (stations de biologie marine de Roscoff, de Banyuls-sur-Mer et de Villefranche-sur-Mer) et en Italie, à Capri.
-Il y fait des découvertes pharmacologiquement importantes sur le thymus des poissons et décrit une méduse fixée, la Capria sturdzii[1].
+Il y fait des découvertes pharmacologiquement importantes sur le thymus des poissons et décrit une méduse fixée, la Capria sturdzii.
 Rentré en Roumanie, il persuade le roi Carol Ier de l'importance d'avoir une connaissance scientifique sérieuse du Danube et de la Mer Noire, au point que le souverain lui prête le navire-amiral de la flotte de guerre, le croiseur Elisabeta, pour une expédition océanographique de neuf mois durant l'année 1893 tout autour de la Mer Noire. 
 La moisson de données alors collectées sert encore de nos jours de base aux océanographes travaillant sur cette mer. 
 À cette occasion Grigore Antipa initie une collaboration avec les scientifiques russes, bulgares et turcs, avec lesquels il partage les résultats de ses recherches.
@@ -547,7 +561,9 @@
           <t>Réalisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mais Antipa est surtout connu comme un précurseur de la géonomie, science de la gestion de la Terre découlant directement des connaissances en écologie. 
 En français, le géographe Albert Demangeon popularise dans ses cours et ouvrages le terme « géonomie », au cours des années 1930, mais pas au point qu'il entre dans les dictionnaires. 
@@ -590,7 +606,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Alexandre Marinescu, Eugen Pora, Grigore Antipa et ses recherches en baie de Naples in : Travaux du Muséum d'Histoire Naturelle "Grigore Antipa", 15, 1974 : p. 407-420.
